--- a/data-raw/data-tidy/tech-yearbook/part08-output/04-teckmarket-push/funds-2012.xlsx
+++ b/data-raw/data-tidy/tech-yearbook/part08-output/04-teckmarket-push/funds-2012.xlsx
@@ -500,7 +500,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>86.1592073995</v>
+        <v>861592.073995</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -520,7 +520,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>2458.5033615988</v>
+        <v>24585033.615988</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -540,7 +540,7 @@
         <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>50.0919857414</v>
+        <v>500919.857414</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -560,7 +560,7 @@
         <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>73.0619018016</v>
+        <v>730619.018016</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -580,7 +580,7 @@
         <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>364.938357151</v>
+        <v>3649383.57151</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -600,7 +600,7 @@
         <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>2.5238279628</v>
+        <v>25238.279628</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -620,7 +620,7 @@
         <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>9.6742771307</v>
+        <v>96742.771307</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -640,7 +640,7 @@
         <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5666144413</v>
+        <v>5666.144413</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
@@ -660,7 +660,7 @@
         <v>8</v>
       </c>
       <c r="D10" t="n">
-        <v>37.8178096708</v>
+        <v>378178.096708</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -680,7 +680,7 @@
         <v>8</v>
       </c>
       <c r="D11" t="n">
-        <v>39.9434743591</v>
+        <v>399434.743591</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -700,7 +700,7 @@
         <v>8</v>
       </c>
       <c r="D12" t="n">
-        <v>100.4473424968</v>
+        <v>1004473.424968</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
@@ -720,7 +720,7 @@
         <v>8</v>
       </c>
       <c r="D13" t="n">
-        <v>196.3922462691</v>
+        <v>1963922.462691</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
@@ -740,7 +740,7 @@
         <v>8</v>
       </c>
       <c r="D14" t="n">
-        <v>42.2419761734</v>
+        <v>422419.761734</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
@@ -760,7 +760,7 @@
         <v>8</v>
       </c>
       <c r="D15" t="n">
-        <v>25.1179831876</v>
+        <v>251179.831876</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
@@ -780,7 +780,7 @@
         <v>8</v>
       </c>
       <c r="D16" t="n">
-        <v>400.9140764779</v>
+        <v>4009140.764779</v>
       </c>
       <c r="E16" t="s">
         <v>9</v>
@@ -800,7 +800,7 @@
         <v>8</v>
       </c>
       <c r="D17" t="n">
-        <v>39.7796147943</v>
+        <v>397796.147943</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
@@ -820,7 +820,7 @@
         <v>8</v>
       </c>
       <c r="D18" t="n">
-        <v>230.664788485</v>
+        <v>2306647.88485</v>
       </c>
       <c r="E18" t="s">
         <v>9</v>
@@ -840,7 +840,7 @@
         <v>8</v>
       </c>
       <c r="D19" t="n">
-        <v>106.0961765085</v>
+        <v>1060961.765085</v>
       </c>
       <c r="E19" t="s">
         <v>9</v>
@@ -860,7 +860,7 @@
         <v>8</v>
       </c>
       <c r="D20" t="n">
-        <v>2.91354692</v>
+        <v>29135.4692</v>
       </c>
       <c r="E20" t="s">
         <v>9</v>
@@ -880,7 +880,7 @@
         <v>8</v>
       </c>
       <c r="D21" t="n">
-        <v>19.2989194013</v>
+        <v>192989.194013</v>
       </c>
       <c r="E21" t="s">
         <v>9</v>
@@ -900,7 +900,7 @@
         <v>8</v>
       </c>
       <c r="D22" t="n">
-        <v>6437.0682977038</v>
+        <v>64370682.977038</v>
       </c>
       <c r="E22" t="s">
         <v>9</v>
@@ -920,7 +920,7 @@
         <v>8</v>
       </c>
       <c r="D23" t="n">
-        <v>140.0152980805</v>
+        <v>1400152.980805</v>
       </c>
       <c r="E23" t="s">
         <v>9</v>
@@ -940,7 +940,7 @@
         <v>8</v>
       </c>
       <c r="D24" t="n">
-        <v>30.6087660529</v>
+        <v>306087.660529</v>
       </c>
       <c r="E24" t="s">
         <v>9</v>
@@ -960,7 +960,7 @@
         <v>8</v>
       </c>
       <c r="D25" t="n">
-        <v>334.81526175</v>
+        <v>3348152.6175</v>
       </c>
       <c r="E25" t="s">
         <v>9</v>
@@ -980,7 +980,7 @@
         <v>8</v>
       </c>
       <c r="D26" t="n">
-        <v>518.747324022</v>
+        <v>5187473.24022</v>
       </c>
       <c r="E26" t="s">
         <v>9</v>
@@ -1000,7 +1000,7 @@
         <v>8</v>
       </c>
       <c r="D27" t="n">
-        <v>111.243798659</v>
+        <v>1112437.98659</v>
       </c>
       <c r="E27" t="s">
         <v>9</v>
@@ -1020,7 +1020,7 @@
         <v>8</v>
       </c>
       <c r="D28" t="n">
-        <v>232.3275305081</v>
+        <v>2323275.305081</v>
       </c>
       <c r="E28" t="s">
         <v>9</v>
@@ -1058,7 +1058,7 @@
         <v>8</v>
       </c>
       <c r="D30" t="n">
-        <v>5.3852625154</v>
+        <v>53852.625154</v>
       </c>
       <c r="E30" t="s">
         <v>9</v>
@@ -1078,7 +1078,7 @@
         <v>8</v>
       </c>
       <c r="D31" t="n">
-        <v>45.4778528294</v>
+        <v>454778.528294</v>
       </c>
       <c r="E31" t="s">
         <v>9</v>
@@ -1098,7 +1098,7 @@
         <v>8</v>
       </c>
       <c r="D32" t="n">
-        <v>81.3078612702</v>
+        <v>813078.612702</v>
       </c>
       <c r="E32" t="s">
         <v>9</v>
@@ -1118,7 +1118,7 @@
         <v>8</v>
       </c>
       <c r="D33" t="n">
-        <v>54.0187875424</v>
+        <v>540187.875424</v>
       </c>
       <c r="E33" t="s">
         <v>9</v>
